--- a/SPRINT 4/SW/calculo/Simulação de Calculo de Preço.xlsx
+++ b/SPRINT 4/SW/calculo/Simulação de Calculo de Preço.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaov\Desktop\cp5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\SW\calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B7E4B6-D645-4908-A24F-EC3390A6AB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ED4662-8756-4E96-9C95-00459CB05199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{1E8D166E-5CA2-4481-A776-38872D80601C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E8D166E-5CA2-4481-A776-38872D80601C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -370,10 +370,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -540,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AA4ED1-BA12-48ED-B972-8D24DDB9A319}">
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="6">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
       </c>
       <c r="B11" s="9">
         <f>SUM(B4:B10)</f>
-        <v>15320</v>
+        <v>9320</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="28"/>
       <c r="E14" s="2" t="s">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="6">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="E15" s="2">
         <v>8</v>
@@ -847,7 +847,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="20">
         <f>G15*B14</f>
-        <v>1056</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
       </c>
       <c r="B17" s="21">
         <f>(B14*B15)+(B14*B15*B16)</f>
-        <v>68040</v>
+        <v>32400</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>20</v>
@@ -864,7 +864,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="27">
         <f>G15*B27</f>
-        <v>528</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
       </c>
       <c r="B19" s="19">
         <f>SUM(B11,B17)</f>
-        <v>83360</v>
+        <v>41720</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
       </c>
       <c r="B20" s="4">
         <f>B14*G15</f>
-        <v>1056</v>
+        <v>704</v>
       </c>
       <c r="G20" s="26"/>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="B21" s="21">
         <f>B19/B20</f>
-        <v>78.939393939393938</v>
+        <v>59.261363636363633</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
       </c>
       <c r="B23" s="21">
         <f>B21/(1-B22)</f>
-        <v>131.56565656565658</v>
+        <v>98.768939393939391</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B24" s="11">
         <f>ROUNDUP(B23,0)</f>
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="28"/>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="B30" s="9">
         <f>(B27*B28)+(B27*B28*B29)</f>
-        <v>10800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
       </c>
       <c r="B32" s="15">
         <f>SUM(B11,B30)</f>
-        <v>26120</v>
+        <v>16520</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
       </c>
       <c r="B33" s="4">
         <f>G17</f>
-        <v>528</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
       </c>
       <c r="B34" s="9">
         <f>B32/B33</f>
-        <v>49.469696969696969</v>
+        <v>46.93181818181818</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B36" s="9">
         <f>B34/(1-B35)</f>
-        <v>82.449494949494948</v>
+        <v>78.219696969696969</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B37" s="11">
         <f>ROUNDUP(B36,0)</f>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B42" s="6">
         <f>B24*(B41*C42)</f>
-        <v>71280</v>
+        <v>53460</v>
       </c>
       <c r="C42" s="29">
         <v>0.6</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B43" s="6">
         <f>B37*(B41*C43)</f>
-        <v>29880</v>
+        <v>28440</v>
       </c>
       <c r="C43" s="29">
         <v>0.4</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B44" s="11">
         <f>B42+B43</f>
-        <v>101160</v>
+        <v>81900</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1098,14 +1098,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1310,21 +1308,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEB77A-4844-48D3-9660-79455360CE60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F843038-DE3C-4972-B891-D5EA378B07F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
-    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1349,9 +1346,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F843038-DE3C-4972-B891-D5EA378B07F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEB77A-4844-48D3-9660-79455360CE60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
+    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPRINT 4/SW/calculo/Simulação de Calculo de Preço.xlsx
+++ b/SPRINT 4/SW/calculo/Simulação de Calculo de Preço.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\SW\calculo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Documents\GitHub\ChallengerFIAP\SPRINT 4\SW\calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ED4662-8756-4E96-9C95-00459CB05199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41F7E2-49E1-4390-A072-44B20A8CE8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E8D166E-5CA2-4481-A776-38872D80601C}"/>
+    <workbookView xWindow="-4980" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{1E8D166E-5CA2-4481-A776-38872D80601C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AA4ED1-BA12-48ED-B972-8D24DDB9A319}">
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="25">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>26</v>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B42" s="6">
         <f>B24*(B41*C42)</f>
-        <v>53460</v>
+        <v>47520</v>
       </c>
       <c r="C42" s="29">
         <v>0.6</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B43" s="6">
         <f>B37*(B41*C43)</f>
-        <v>28440</v>
+        <v>25280</v>
       </c>
       <c r="C43" s="29">
         <v>0.4</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B44" s="11">
         <f>B42+B43</f>
-        <v>81900</v>
+        <v>72800</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1098,6 +1098,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1106,7 +1117,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100223DA578DE33E44E8DD11C312C11F0C0" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d526c22b1d23e28afc99822b88121eac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bc641a7-997f-4048-a412-d593c6319208" xmlns:ns3="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc08be22a24865d043bf2c5a4ec5c598" ns2:_="" ns3:_="">
     <xsd:import namespace="7bc641a7-997f-4048-a412-d593c6319208"/>
@@ -1307,18 +1318,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEB77A-4844-48D3-9660-79455360CE60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
+    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F843038-DE3C-4972-B891-D5EA378B07F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1326,7 +1337,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7113A016-6D91-4D55-B0E6-6F06967FC980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1343,15 +1354,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEB77A-4844-48D3-9660-79455360CE60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
-    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>